--- a/user_data/user_schedules/牛仔好忙/best_schedule/學分_36，優先度和_91.xlsx
+++ b/user_data/user_schedules/牛仔好忙/best_schedule/學分_36，優先度和_91.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -470,7 +470,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -486,14 +486,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -502,14 +502,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -518,14 +518,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4079</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -550,14 +550,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -566,14 +566,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -582,7 +582,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -598,7 +598,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -614,7 +614,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -630,7 +630,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -646,7 +646,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -659,175 +659,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3978</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-    </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>0906</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>0928</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>0896</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>0911</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0901</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
           <t>最後更新</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-01-20 18:43:55</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-24 10:13:02</t>
         </is>
       </c>
     </row>
@@ -972,12 +812,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4079</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAD0340</t>
+          <t>AAD0136</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1007,12 +847,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>固態理論一</t>
+          <t>全球化風險治理專題</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Theory of Solid (I)</t>
+          <t>Seminar on Globalizational Risk Governance</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -1030,28 +870,28 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>高英哲</t>
+          <t>周桂田</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>五 2-4 新物618</t>
+          <t>四 8-10 請洽系所辦</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>◎課程開放上修 ◎加退選全授權碼選課</t>
+          <t>◎課程不開放上修</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>理學院 ; 物理學研究所 ;   限修學制：大、碩、博</t>
+          <t>社會科學院 ; 國家發展研究所 ; 上課地點為國發208。必選課程。 ; 限修學制：博</t>
         </is>
       </c>
       <c r="U3" t="b">
@@ -1059,19 +899,19 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>["五-2", "五-3", "五-4"]</t>
+          <t>["四-8", "四-9", "四-10"]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AAD0227</t>
+          <t>AAD0340</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1090,10 +930,8 @@
       <c r="F4" t="n">
         <v/>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
+      <c r="G4" t="n">
+        <v/>
       </c>
       <c r="H4" t="n">
         <v/>
@@ -1103,12 +941,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>尖端材料之基礎與應用</t>
+          <t>固態理論一</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Advanced Materials: Fundamentals and Applications</t>
+          <t>Theory of Solid (I)</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1126,28 +964,28 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>林麗瓊</t>
+          <t>高英哲</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>一 2-4 請洽系所辦</t>
+          <t>五 2-4 新物618</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>◎課程開放上修</t>
+          <t>◎課程開放上修 ◎加退選全授權碼選課</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>理學院 ; 物理學研究所 ; 上課教室：凝態中心212室。(CCMS room212) ; 限修學制：大、碩、博</t>
+          <t>理學院 ; 物理學研究所 ;   限修學制：大、碩、博</t>
         </is>
       </c>
       <c r="U4" t="b">
@@ -1155,19 +993,19 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>["一-2", "一-3", "一-4"]</t>
+          <t>["五-2", "五-3", "五-4"]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AAD0046</t>
+          <t>AAD0227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1186,8 +1024,10 @@
       <c r="F5" t="n">
         <v/>
       </c>
-      <c r="G5" t="n">
-        <v/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v/>
@@ -1197,12 +1037,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>微波物理</t>
+          <t>尖端材料之基礎與應用</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Microwave Physics</t>
+          <t>Advanced Materials: Fundamentals and Applications</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1220,16 +1060,16 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>朱國瑞</t>
+          <t>林麗瓊</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>五 7-9 新物618</t>
+          <t>一 2-4 請洽系所辦</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1241,7 +1081,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>理學院 ; 物理學研究所 ;   限修學制：大、碩、博</t>
+          <t>理學院 ; 物理學研究所 ; 上課教室：凝態中心212室。(CCMS room212) ; 限修學制：大、碩、博</t>
         </is>
       </c>
       <c r="U5" t="b">
@@ -1249,19 +1089,19 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>["五-7", "五-8", "五-9"]</t>
+          <t>["一-2", "一-3", "一-4"]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AAD0020</t>
+          <t>AAD0046</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1280,10 +1120,8 @@
       <c r="F6" t="n">
         <v/>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
+      <c r="G6" t="n">
+        <v/>
       </c>
       <c r="H6" t="n">
         <v/>
@@ -1293,16 +1131,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>應用隨機過程二</t>
+          <t>微波物理</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Applied Stochastic process (II)</t>
+          <t>Microwave Physics</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1316,28 +1154,28 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>陳秀熙</t>
+          <t>朱國瑞</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>三 10-A 公衛213</t>
+          <t>五 7-9 新物618</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>◎課程開放上修 ◎加退選全授權碼選課</t>
+          <t>◎課程開放上修</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>公共衛生學院 ; 流行病學與預防醫學研究所 ;   限修學制：大、碩、博</t>
+          <t>理學院 ; 物理學研究所 ;   限修學制：大、碩、博</t>
         </is>
       </c>
       <c r="U6" t="b">
@@ -1345,19 +1183,19 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>["三-10", "三-A"]</t>
+          <t>["五-7", "五-8", "五-9"]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AAD0086</t>
+          <t>AAD0020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1376,8 +1214,10 @@
       <c r="F7" t="n">
         <v/>
       </c>
-      <c r="G7" t="n">
-        <v/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v/>
@@ -1387,12 +1227,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>東方哲學問題討論下</t>
+          <t>應用隨機過程二</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Seminar on Problems of Oriental Philosophy (2)</t>
+          <t>Applied Stochastic process (II)</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1410,28 +1250,28 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>李賢中</t>
+          <t>陳秀熙</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>三 3-4 人文342</t>
+          <t>三 10-A 公衛213</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>◎課程開放上修</t>
+          <t>◎課程開放上修 ◎加退選全授權碼選課</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>文學院 ; 哲學研究所 ;   限修學制：大、碩、博</t>
+          <t>公共衛生學院 ; 流行病學與預防醫學研究所 ;   限修學制：大、碩、博</t>
         </is>
       </c>
       <c r="U7" t="b">
@@ -1439,19 +1279,19 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>["三-3", "三-4"]</t>
+          <t>["三-10", "三-A"]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAD0102</t>
+          <t>AAD0086</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1481,16 +1321,16 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>社會工作介入方法論</t>
+          <t>東方哲學問題討論下</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Social Work Intervention Methods</t>
+          <t>Seminar on Problems of Oriental Philosophy (2)</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1504,12 +1344,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>鄭麗珍</t>
+          <t>李賢中</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>二 7-9 社114</t>
+          <t>三 3-4 人文342</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1520,12 +1360,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>◎課程不開放上修 ◎加退選全授權碼選課</t>
+          <t>◎課程開放上修</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>社會科學院 ; 社會工作學研究所 ;   限修學制：博</t>
+          <t>文學院 ; 哲學研究所 ;   限修學制：大、碩、博</t>
         </is>
       </c>
       <c r="U8" t="b">
@@ -1533,19 +1373,19 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>["二-7", "二-8", "二-9"]</t>
+          <t>["三-3", "三-4"]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AAD0103</t>
+          <t>AAD0102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1575,12 +1415,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>社會福利理論</t>
+          <t>社會工作介入方法論</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Social Welfare Theory</t>
+          <t>Social Work Intervention Methods</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1598,12 +1438,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>古允文</t>
+          <t>鄭麗珍</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>二 2-4 社114</t>
+          <t>二 7-9 社114</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1627,19 +1467,19 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>["二-2", "二-3", "二-4"]</t>
+          <t>["二-7", "二-8", "二-9"]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AAD0159</t>
+          <t>AAD0103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1658,10 +1498,8 @@
       <c r="F10" t="n">
         <v/>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
+      <c r="G10" t="n">
+        <v/>
       </c>
       <c r="H10" t="n">
         <v/>
@@ -1671,12 +1509,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>粒子天文物理學</t>
+          <t>社會福利理論</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Particle Astrophysics</t>
+          <t>Social Welfare Theory</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1694,28 +1532,28 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>裴思達</t>
+          <t>古允文</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>四 7-9 請洽系所辦</t>
+          <t>二 2-4 社114</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>◎課程開放上修 ◎加退選全授權碼選課</t>
+          <t>◎課程不開放上修 ◎加退選全授權碼選課</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>理學院 ; 天文物理研究所 ; 上課教室：梁次震宇宙館7W3 ; 限修學制：大、碩、博</t>
+          <t>社會科學院 ; 社會工作學研究所 ;   限修學制：博</t>
         </is>
       </c>
       <c r="U10" t="b">
@@ -1723,7 +1561,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>["四-7", "四-8", "四-9"]</t>
+          <t>["二-2", "二-3", "二-4"]</t>
         </is>
       </c>
     </row>
